--- a/simplescalar/stats/fmt.xlsx
+++ b/simplescalar/stats/fmt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS16"/>
+  <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,217 +446,302 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>naive_il1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>naive_il2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>naive_itlb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>naive_dl1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>naive_dl2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>naive_dtlb</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>naive_bpenalty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_il1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_il2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_itlb</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_dl1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_dl2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_dtlb</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_bpenalty</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_il1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_il2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_itlb</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_dl1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_dl2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_dtlb</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_bpenalty</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_il1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_il2</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_itlb</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_dl1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_dl2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_dtlb</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_bpenalty</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>FMT_base</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>il1.misses</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ul2.misses</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>itlb.misses</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>dl1.misses</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>dtlb.misses</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>naive_bpenalty</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_il1_rate</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_il2_rate</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_itlb_rate</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_dl1_rate</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_dl2_rate</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_dtlb_rate</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>FMT_bpenalty_rate</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_il1_rate</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_il2_rate</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_itlb_rate</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_dl1_rate</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_dl2_rate</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_dtlb_rate</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>sFMT_bpenalty_rate</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>naive_il1_rate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>naive_il2_rate</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>naive_itlb_rate</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>naive_dl1_rate</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>naive_dl2_rate</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>naive_dtlb_rate</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>naive_bpenalty_rate</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_il1_rate</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_il2_rate</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_itlb_rate</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_dl1_rate</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_dl2_rate</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_dtlb_rate</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_bpenalty_rate</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>sFMT_base</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_il1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_il2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_itlb</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_dl1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_dl2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_dtlb</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_bpenalty</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>naive_base</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_il1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_il2</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_itlb</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_dl1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_dl2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_dtlb</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_bpenalty</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_il1_rate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_il2_rate</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_itlb_rate</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_dl1_rate</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_dl2_rate</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_dtlb_rate</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>FMT_bpenalty_rate</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_il1_rate</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_il2_rate</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_itlb_rate</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_dl1_rate</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_dl2_rate</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_dtlb_rate</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>sFMT_bpenalty_rate</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>il1.misses_rate</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>ul2.misses_rate</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>itlb.misses_rate</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>dl1.misses_rate</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>dtlb.misses_rate</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>naive_bpenalty_rate</t>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>naive_non_spec_base</t>
         </is>
       </c>
     </row>
@@ -667,136 +752,187 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300532</v>
+        <v>352142549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973646733126589</v>
+        <v>359650</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1120</v>
       </c>
       <c r="E2" t="n">
-        <v>12503</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>133048974</v>
       </c>
       <c r="G2" t="n">
-        <v>25001</v>
+        <v>920</v>
       </c>
       <c r="H2" t="n">
-        <v>196</v>
+        <v>34187411</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2665742</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9973646733126589</v>
+        <v>359190</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="L2" t="n">
-        <v>528</v>
+        <v>16</v>
       </c>
       <c r="M2" t="n">
-        <v>264</v>
+        <v>266447842</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>12108</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53340721</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2665742</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3238701</v>
       </c>
       <c r="R2" t="n">
-        <v>-10.16915004059468</v>
+        <v>303169</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="T2" t="n">
-        <v>528</v>
+        <v>20640979</v>
       </c>
       <c r="U2" t="n">
-        <v>264</v>
+        <v>5793</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>8530351</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>37880657</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3210799</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>302539</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>4756</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00175688445822741</v>
+        <v>20640979</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.000878442229113705</v>
+        <v>5793</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8530351</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>37880657</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.7995005000091597</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.00919713056316861</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>0.0008609269196833127</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00175688445822741</v>
+        <v>1.350305441220623e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000878442229113705</v>
+        <v>0.0586154074780665</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.645072433436608e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>0.02422414168416779</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.1075719395670076</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>0.00911789560539587</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.989378834866171e-05</v>
+        <v>0.0008591378714646608</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.40072271837941</v>
+        <v>1.350589417128346e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>9.982298058110284e-05</v>
+        <v>0.0586154074780665</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7487023012524456</v>
+        <v>1.645072433436608e-05</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01956530419389615</v>
+        <v>0.02422414168416779</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>0.1075719395670076</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.009191874169116666</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.00079513254162308</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.618662674018413e-06</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.400443284688099</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0006531445877618157</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.912520321422448</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.03785032521020344</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.009180117566536954</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0007830635655448726</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.363084357068137e-06</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>6.809829101339298</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.008595950726760939</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4.544243899364743</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.03785032521020344</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.7995815211753921</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-5.361455701281926</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-10.41048382085745</v>
       </c>
     </row>
     <row r="3">
@@ -806,136 +942,187 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300532</v>
+        <v>314009581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9973646733126589</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>12503</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>175417511</v>
       </c>
       <c r="G3" t="n">
-        <v>25001</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>196</v>
+        <v>28654718</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4908019</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9973646733126589</v>
+        <v>94</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L3" t="n">
-        <v>528</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>264</v>
+        <v>216678695</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46886</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>33495358</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4908019</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="R3" t="n">
-        <v>-10.16915004059468</v>
+        <v>29057</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="T3" t="n">
-        <v>528</v>
+        <v>5167630</v>
       </c>
       <c r="U3" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3767149</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>52303999</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>28438</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00175688445822741</v>
+        <v>5167630</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.000878442229113705</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3767149</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>52303999</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.8048793581237892</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.738769935812882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>9.253539305222665e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00175688445822741</v>
+        <v>3.362954711881865e-06</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.000878442229113705</v>
+        <v>0.01645691823651712</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.01199692374991577</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.166568162772078</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2.751508400630616e-06</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.989378834866171e-05</v>
+        <v>9.056411562168225e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.40072271837941</v>
+        <v>3.359770095677431e-06</v>
       </c>
       <c r="AP3" t="n">
-        <v>9.982298058110284e-05</v>
+        <v>0.01645691823651712</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.7487023012524456</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.01956530419389615</v>
+        <v>0.01199692374991577</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>0.166568162772078</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.722846854790714e-06</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.757694562192355e-05</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3.821539445320301e-07</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.027737032648058</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2.388462153325188e-06</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2.737628378288241</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.07815078419533958</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2.694185308950812e-06</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>8.678079157081515e-05</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>3.821539445320301e-07</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>6.210346349272699</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.03732847884026825</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.200095795803122</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.07815078419533958</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.8048813198473711</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-6.843609265540213</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>-8.526011265242252</v>
       </c>
     </row>
     <row r="4">
@@ -945,136 +1132,187 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628339</v>
+        <v>359390974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.503743998064739</v>
+        <v>251816</v>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>1844</v>
       </c>
       <c r="E4" t="n">
-        <v>142851</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>152576153</v>
       </c>
       <c r="G4" t="n">
-        <v>142820</v>
+        <v>677</v>
       </c>
       <c r="H4" t="n">
-        <v>35708</v>
+        <v>39682734</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>4768964</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5025662898530888</v>
+        <v>249925</v>
       </c>
       <c r="K4" t="n">
-        <v>188</v>
+        <v>1810</v>
       </c>
       <c r="L4" t="n">
-        <v>54984</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>48889</v>
+        <v>250085455</v>
       </c>
       <c r="N4" t="n">
-        <v>112906</v>
+        <v>27300</v>
       </c>
       <c r="O4" t="n">
-        <v>34736</v>
+        <v>54700079</v>
       </c>
       <c r="P4" t="n">
-        <v>8684</v>
+        <v>4768964</v>
       </c>
       <c r="Q4" t="n">
-        <v>51430</v>
+        <v>2279913</v>
       </c>
       <c r="R4" t="n">
-        <v>-59.58863288766096</v>
+        <v>496979</v>
       </c>
       <c r="S4" t="n">
-        <v>191</v>
+        <v>4755</v>
       </c>
       <c r="T4" t="n">
-        <v>55467</v>
+        <v>34860355</v>
       </c>
       <c r="U4" t="n">
-        <v>49143</v>
+        <v>8082</v>
       </c>
       <c r="V4" t="n">
-        <v>112906</v>
+        <v>13838004</v>
       </c>
       <c r="W4" t="n">
-        <v>34736</v>
+        <v>65262310</v>
       </c>
       <c r="X4" t="n">
-        <v>8684</v>
+        <v>2245465</v>
       </c>
       <c r="Y4" t="n">
-        <v>51430</v>
+        <v>495020</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0002992015456624529</v>
+        <v>4755</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08750690312076762</v>
+        <v>34860355</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07780672535048755</v>
+        <v>8082</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1796896261413027</v>
+        <v>13838004</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05528226005388811</v>
+        <v>65262310</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01382056501347203</v>
+        <v>0.6751437669661676</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.08185072070968061</v>
+        <v>0.00634382376002576</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0003039760384123856</v>
+        <v>0.001382836620710458</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.08827559645350679</v>
+        <v>1.323071625054223e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.07821096573664853</v>
+        <v>0.09699841543599812</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1796896261413027</v>
+        <v>2.248804389839796e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05528226005388811</v>
+        <v>0.03850403877978305</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01382056501347203</v>
+        <v>0.1815913996771661</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.08185072070968061</v>
+        <v>0.006247972716198488</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0008450852167380985</v>
+        <v>0.001377385732564335</v>
       </c>
       <c r="AO4" t="n">
-        <v>56.83675531838705</v>
+        <v>1.323071625054223e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0003342144924952931</v>
+        <v>0.09699841543599812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.04567916363619</v>
+        <v>2.248804389839796e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.70487587114599</v>
+        <v>0.03850403877978305</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0001432347824979828</v>
+        <v>0.1815913996771661</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.00630606822084519</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.001282725592323863</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.586016459055536e-06</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.82086773553751</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0004709355889388586</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>3.312498382332774</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.06634785435652038</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.006258713108359811</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.001259074469688824</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.335592807625714e-06</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6.262731281058828</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.01899046023342812</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>4.566064505559898</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.06634785435652038</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.6752450688981411</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-6.20777528764537</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>-9.921653224379531</v>
       </c>
     </row>
     <row r="5">
@@ -1084,136 +1322,187 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628601</v>
+        <v>334760577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.503583354146748</v>
+        <v>102821</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>1662</v>
       </c>
       <c r="E5" t="n">
-        <v>142852</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>179594496</v>
       </c>
       <c r="G5" t="n">
-        <v>142821</v>
+        <v>267</v>
       </c>
       <c r="H5" t="n">
-        <v>35708</v>
+        <v>32892331</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>4957981</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5024077276364497</v>
+        <v>102512</v>
       </c>
       <c r="K5" t="n">
-        <v>188</v>
+        <v>1620</v>
       </c>
       <c r="L5" t="n">
-        <v>54984</v>
+        <v>17</v>
       </c>
       <c r="M5" t="n">
-        <v>48889</v>
+        <v>233892165</v>
       </c>
       <c r="N5" t="n">
-        <v>112906</v>
+        <v>13007</v>
       </c>
       <c r="O5" t="n">
-        <v>34967</v>
+        <v>41049332</v>
       </c>
       <c r="P5" t="n">
-        <v>8684</v>
+        <v>4957981</v>
       </c>
       <c r="Q5" t="n">
-        <v>51430</v>
+        <v>929031</v>
       </c>
       <c r="R5" t="n">
-        <v>-59.56379165798336</v>
+        <v>454634</v>
       </c>
       <c r="S5" t="n">
-        <v>191</v>
+        <v>8248</v>
       </c>
       <c r="T5" t="n">
-        <v>55466</v>
+        <v>28085807</v>
       </c>
       <c r="U5" t="n">
-        <v>49143</v>
+        <v>2728</v>
       </c>
       <c r="V5" t="n">
-        <v>112906</v>
+        <v>11477225</v>
       </c>
       <c r="W5" t="n">
-        <v>34967</v>
+        <v>60346396</v>
       </c>
       <c r="X5" t="n">
-        <v>8684</v>
+        <v>913671</v>
       </c>
       <c r="Y5" t="n">
-        <v>51430</v>
+        <v>452175</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0002990768388850797</v>
+        <v>8244</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.08747043036838949</v>
+        <v>28085807</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07777429561836523</v>
+        <v>2728</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.179614731761483</v>
+        <v>11477225</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.05562670119837544</v>
+        <v>60346396</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01381480462169166</v>
+        <v>0.6973835153832945</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.08181660544606197</v>
+        <v>0.00277521029604391</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0003038493416332459</v>
+        <v>0.001358087036634544</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.08823721247659486</v>
+        <v>2.463850455126919e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.07817836751770996</v>
+        <v>0.08389819151255674</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.179614731761483</v>
+        <v>8.149107712883408e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.05562670119837544</v>
+        <v>0.03428487638196417</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.01381480462169166</v>
+        <v>0.1802673317772421</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.08181660544606197</v>
+        <v>0.002729326757015358</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0008447329864254114</v>
+        <v>0.001350741488296574</v>
       </c>
       <c r="AO5" t="n">
-        <v>56.81346354841943</v>
+        <v>2.462655571298051e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0003340751923716316</v>
+        <v>0.08389819151255674</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.04484084498752</v>
+        <v>8.149107712883408e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.704165281315175</v>
+        <v>0.03428487638196417</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.000143175082444985</v>
+        <v>0.1802673317772421</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.002764330878782062</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.001241185577237191</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.792325743302802e-06</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.828377578044383</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0001993962389424368</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2.947688580426841</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0740526415092181</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.002756023448961853</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.001209819876729392</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1.523476881807382e-06</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>6.2881642272949</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.009713658726308147</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3.678688724449175</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0740526415092181</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.6974367564194992</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-6.854325505001147</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-9.054586618782173</v>
       </c>
     </row>
     <row r="6">
@@ -1223,136 +1512,187 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164802</v>
+        <v>369489395</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.209274104513946</v>
+        <v>313214</v>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>1647</v>
       </c>
       <c r="E6" t="n">
-        <v>142851</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>129505712</v>
       </c>
       <c r="G6" t="n">
-        <v>142819</v>
+        <v>906</v>
       </c>
       <c r="H6" t="n">
-        <v>35708</v>
+        <v>63331666</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>6278947</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.209609931993781</v>
+        <v>311962</v>
       </c>
       <c r="K6" t="n">
-        <v>188</v>
+        <v>1610</v>
       </c>
       <c r="L6" t="n">
-        <v>1591184</v>
+        <v>16</v>
       </c>
       <c r="M6" t="n">
-        <v>1585089</v>
+        <v>239339575</v>
       </c>
       <c r="N6" t="n">
-        <v>13044</v>
+        <v>24947</v>
       </c>
       <c r="O6" t="n">
-        <v>4241</v>
+        <v>98146420</v>
       </c>
       <c r="P6" t="n">
-        <v>1002</v>
+        <v>6278947</v>
       </c>
       <c r="Q6" t="n">
-        <v>1587893</v>
+        <v>2830983</v>
       </c>
       <c r="R6" t="n">
-        <v>-16.58599262195803</v>
+        <v>449958</v>
       </c>
       <c r="S6" t="n">
-        <v>191</v>
+        <v>7741</v>
       </c>
       <c r="T6" t="n">
-        <v>1591654</v>
+        <v>33430625</v>
       </c>
       <c r="U6" t="n">
-        <v>1585343</v>
+        <v>7400</v>
       </c>
       <c r="V6" t="n">
-        <v>13044</v>
+        <v>13513371</v>
       </c>
       <c r="W6" t="n">
-        <v>4241</v>
+        <v>78923182</v>
       </c>
       <c r="X6" t="n">
-        <v>1002</v>
+        <v>2799026</v>
       </c>
       <c r="Y6" t="n">
-        <v>1587893</v>
+        <v>447688</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.684397002589614e-05</v>
+        <v>7741</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7350251893706676</v>
+        <v>33430625</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7322096893849876</v>
+        <v>7400</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.006025493324562708</v>
+        <v>13513371</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.001959070621701199</v>
+        <v>78923182</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0004628598827975954</v>
+        <v>0.6504276936013279</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7335049579592037</v>
+        <v>0.007661878901828833</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.822977805822427e-05</v>
+        <v>0.001217783260058113</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7352422992957324</v>
+        <v>2.095053364116174e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7323270211317248</v>
+        <v>0.0904779012669633</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.006025493324562708</v>
+        <v>2.002763841165184e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.001959070621701199</v>
+        <v>0.03657309569060839</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0004628598827975954</v>
+        <v>0.2136006691071607</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7335049579592037</v>
+        <v>0.007575389274704352</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.000245288021722079</v>
+        <v>0.001211639646653458</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.49700526884214</v>
+        <v>2.095053364116174e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.700656226296909e-05</v>
+        <v>0.0904779012669633</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5937591521072134</v>
+        <v>2.002763841165184e-05</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.4948443321837286</v>
+        <v>0.03657309569060839</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.157424096984389e-05</v>
+        <v>0.2136006691071607</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.007629247383405957</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.001114375691351033</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.542669445221831e-06</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.154492182380499</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0006130081216539382</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>5.142096108062858</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.08496789197427439</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.007598751244267782</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.001089341143336468</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1.299090059134174e-06</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>5.829818674498087</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.01687937484646887</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>7.968814910100464</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.08496789197427439</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.6505203268418569</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-7.390914356283487</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-12.90917024289696</v>
       </c>
     </row>
     <row r="7">
@@ -1362,136 +1702,187 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523908</v>
+        <v>502185235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5130862670545211</v>
+        <v>6844770</v>
       </c>
       <c r="D7" t="n">
-        <v>14642</v>
+        <v>1829</v>
       </c>
       <c r="E7" t="n">
-        <v>540</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>72845293</v>
       </c>
       <c r="G7" t="n">
-        <v>930</v>
+        <v>12336970</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>56618951</v>
       </c>
       <c r="I7" t="n">
-        <v>6980</v>
+        <v>3019988</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5133553982760333</v>
+        <v>5955136</v>
       </c>
       <c r="K7" t="n">
-        <v>130816</v>
+        <v>1715</v>
       </c>
       <c r="L7" t="n">
-        <v>15846</v>
+        <v>39</v>
       </c>
       <c r="M7" t="n">
-        <v>1584</v>
+        <v>120793006</v>
       </c>
       <c r="N7" t="n">
-        <v>37</v>
+        <v>18502879</v>
       </c>
       <c r="O7" t="n">
-        <v>6554</v>
+        <v>57435976</v>
       </c>
       <c r="P7" t="n">
-        <v>83</v>
+        <v>3019988</v>
       </c>
       <c r="Q7" t="n">
-        <v>100178</v>
+        <v>55131817</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4067126289348513</v>
+        <v>458860</v>
       </c>
       <c r="S7" t="n">
-        <v>130702</v>
+        <v>10086</v>
       </c>
       <c r="T7" t="n">
-        <v>15819</v>
+        <v>4975813</v>
       </c>
       <c r="U7" t="n">
-        <v>1584</v>
+        <v>65229221</v>
       </c>
       <c r="V7" t="n">
-        <v>37</v>
+        <v>219910</v>
       </c>
       <c r="W7" t="n">
-        <v>6554</v>
+        <v>99637211</v>
       </c>
       <c r="X7" t="n">
-        <v>83</v>
+        <v>56643983</v>
       </c>
       <c r="Y7" t="n">
-        <v>100178</v>
+        <v>465910</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2496926941371386</v>
+        <v>10073</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03024576834100644</v>
+        <v>4975813</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.003023431594860166</v>
+        <v>65229221</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>219910</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01250982997014743</v>
+        <v>99637211</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.5506380867609538</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.1097838270772736</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2494750986814479</v>
+        <v>0.0009137265853704361</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.03019423257518496</v>
+        <v>2.008422250805522e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.003023431594860166</v>
+        <v>0.009908321976053317</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>0.1298907583374091</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.01250982997014743</v>
+        <v>0.0004379061443333753</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.1984072888960983</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.1127949988414136</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2515288943860372</v>
+        <v>0.0009277652298956977</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2576788291074005</v>
+        <v>2.005833564581006e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0004008337341670675</v>
+        <v>0.009908321976053317</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01597608740465883</v>
+        <v>0.1298907583374091</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.001087977278453469</v>
+        <v>0.0004379061443333753</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.06661474915443169</v>
+        <v>0.1984072888960983</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.1226697356006494</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0009105205970462273</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>2.449295427811612e-06</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.305509583530468</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6.141643132936794</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>3.382354580775359</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.03006846666847941</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.1067260051960707</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0008537686298164461</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>2.329817602064704e-06</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.16481285834698</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>9.211182304075509</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3.431162766065792</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.03006846666847941</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.547612902239151</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-9.983158469404225</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-13.94480849880025</v>
       </c>
     </row>
     <row r="8">
@@ -1501,136 +1892,187 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>523908</v>
+        <v>1182542686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5130862670545211</v>
+        <v>33518990</v>
       </c>
       <c r="D8" t="n">
-        <v>14642</v>
+        <v>11434</v>
       </c>
       <c r="E8" t="n">
-        <v>540</v>
+        <v>323110</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>136713645</v>
       </c>
       <c r="G8" t="n">
-        <v>930</v>
+        <v>5157971</v>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>3144478</v>
       </c>
       <c r="I8" t="n">
-        <v>6980</v>
+        <v>12753976</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5133553982760333</v>
+        <v>31152842</v>
       </c>
       <c r="K8" t="n">
-        <v>130816</v>
+        <v>10763</v>
       </c>
       <c r="L8" t="n">
-        <v>15846</v>
+        <v>303826</v>
       </c>
       <c r="M8" t="n">
-        <v>1584</v>
+        <v>184700701</v>
       </c>
       <c r="N8" t="n">
-        <v>37</v>
+        <v>5017363</v>
       </c>
       <c r="O8" t="n">
-        <v>6554</v>
+        <v>4891941</v>
       </c>
       <c r="P8" t="n">
-        <v>83</v>
+        <v>12753976</v>
       </c>
       <c r="Q8" t="n">
-        <v>100178</v>
+        <v>294715890</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4067126289348513</v>
+        <v>2847532</v>
       </c>
       <c r="S8" t="n">
-        <v>130702</v>
+        <v>9398929</v>
       </c>
       <c r="T8" t="n">
-        <v>15819</v>
+        <v>53653294</v>
       </c>
       <c r="U8" t="n">
-        <v>1584</v>
+        <v>245512700</v>
       </c>
       <c r="V8" t="n">
-        <v>37</v>
+        <v>400375</v>
       </c>
       <c r="W8" t="n">
-        <v>6554</v>
+        <v>259405089</v>
       </c>
       <c r="X8" t="n">
-        <v>83</v>
+        <v>300298331</v>
       </c>
       <c r="Y8" t="n">
-        <v>100178</v>
+        <v>2881362</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2496926941371386</v>
+        <v>9525922</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03024576834100644</v>
+        <v>53653294</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003023431594860166</v>
+        <v>245512700</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>400375</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01250982997014743</v>
+        <v>259405089</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.2677356857797183</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.2492222001701171</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2494750986814479</v>
+        <v>0.002407973964670904</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.03019423257518496</v>
+        <v>0.007948067423927225</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.003023431594860166</v>
+        <v>0.04537112667068663</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>0.2076142391362268</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.01250982997014743</v>
+        <v>0.0003385712877344708</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.2193621355669186</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.2539429100997374</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.2515288943860372</v>
+        <v>0.002436581811474668</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2576788291074005</v>
+        <v>0.008055457204865753</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0004008337341670675</v>
+        <v>0.04537112667068663</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01597608740465883</v>
+        <v>0.2076142391362268</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.001087977278453469</v>
+        <v>0.0003385712877344708</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.06661474915443169</v>
+        <v>0.2193621355669186</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.2551036115410045</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.002417248894134211</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.008196997972891779</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.040489125311794</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1.090440764013148</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.07977246074650365</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.05392607028478971</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.2370955241779746</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.002275393549725951</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.007707780960390634</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.405705120567631</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.06071498716284</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.124103959829489</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.05392607028478971</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.2628789782223556</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>-1.530346278764266</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-1.89152883653284</v>
       </c>
     </row>
     <row r="9">
@@ -1640,136 +2082,187 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>523774</v>
+        <v>650970389</v>
       </c>
       <c r="C9" t="n">
-        <v>0.510290697896421</v>
+        <v>8274995</v>
       </c>
       <c r="D9" t="n">
-        <v>14634</v>
+        <v>4753</v>
       </c>
       <c r="E9" t="n">
-        <v>540</v>
+        <v>29953</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>50509018</v>
       </c>
       <c r="G9" t="n">
-        <v>930</v>
+        <v>2288088</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>976683</v>
       </c>
       <c r="I9" t="n">
-        <v>6975</v>
+        <v>4061967</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5101150496206379</v>
+        <v>7743000</v>
       </c>
       <c r="K9" t="n">
-        <v>130763</v>
+        <v>4501</v>
       </c>
       <c r="L9" t="n">
-        <v>15589</v>
+        <v>27881</v>
       </c>
       <c r="M9" t="n">
-        <v>1584</v>
+        <v>172683034</v>
       </c>
       <c r="N9" t="n">
-        <v>34</v>
+        <v>1993277</v>
       </c>
       <c r="O9" t="n">
-        <v>6626</v>
+        <v>2900758</v>
       </c>
       <c r="P9" t="n">
-        <v>96</v>
+        <v>4061967</v>
       </c>
       <c r="Q9" t="n">
-        <v>101805</v>
+        <v>71296475</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4067460393223031</v>
+        <v>1173870</v>
       </c>
       <c r="S9" t="n">
-        <v>130690</v>
+        <v>898910</v>
       </c>
       <c r="T9" t="n">
-        <v>15754</v>
+        <v>11012804</v>
       </c>
       <c r="U9" t="n">
-        <v>1584</v>
+        <v>80609029</v>
       </c>
       <c r="V9" t="n">
-        <v>34</v>
+        <v>103845</v>
       </c>
       <c r="W9" t="n">
-        <v>6626</v>
+        <v>102059653</v>
       </c>
       <c r="X9" t="n">
-        <v>96</v>
+        <v>72701810</v>
       </c>
       <c r="Y9" t="n">
-        <v>101805</v>
+        <v>1192225</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2496553857197952</v>
+        <v>899057</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02976283664328508</v>
+        <v>11012804</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.003024205096091062</v>
+        <v>80609029</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.491349322417684e-05</v>
+        <v>103845</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0126504942971587</v>
+        <v>102059653</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001832851573388523</v>
+        <v>0.58960562490347</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.194368181696686</v>
+        <v>0.1095233764926288</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.2495160126314021</v>
+        <v>0.001803261745596849</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.03007785800746123</v>
+        <v>0.001380876941854263</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.003024205096091062</v>
+        <v>0.01691751911621897</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.491349322417684e-05</v>
+        <v>0.1238290256548059</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0126504942971587</v>
+        <v>0.0001595233850183622</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001832851573388523</v>
+        <v>0.1567807917604068</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.194368181696686</v>
+        <v>0.1116822074068257</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.2514557805465716</v>
+        <v>0.001831458112605487</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.257744752507761</v>
+        <v>0.001381102758577242</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0004009362816787393</v>
+        <v>0.01691751911621897</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01598017465548118</v>
+        <v>0.1238290256548059</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.001088255621699435</v>
+        <v>0.0001595233850183622</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.06658406106450492</v>
+        <v>0.1567807917604068</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1144060563406057</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.001825351844075968</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.001380385368035534</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.6983131178951367</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.8787219966774864</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.04501048049975127</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.03119932233968326</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.1070509522054466</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.001728573248513766</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.001284897153747496</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2.387431643991413</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.7655021770890412</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.1336815644313431</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.03119932233968326</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.5874183718055416</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>-0.7708567109647749</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>-2.427879130459189</v>
       </c>
     </row>
     <row r="10">
@@ -1779,136 +2272,187 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523765</v>
+        <v>578287426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.510303284870123</v>
+        <v>7886249</v>
       </c>
       <c r="D10" t="n">
-        <v>14633</v>
+        <v>3448</v>
       </c>
       <c r="E10" t="n">
-        <v>540</v>
+        <v>43</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>80817343</v>
       </c>
       <c r="G10" t="n">
-        <v>930</v>
+        <v>6452622</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>53131855</v>
       </c>
       <c r="I10" t="n">
-        <v>6975</v>
+        <v>2662655</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5111242637442364</v>
+        <v>7003906</v>
       </c>
       <c r="K10" t="n">
-        <v>130753</v>
+        <v>3290</v>
       </c>
       <c r="L10" t="n">
-        <v>15589</v>
+        <v>40</v>
       </c>
       <c r="M10" t="n">
-        <v>1584</v>
+        <v>134298562</v>
       </c>
       <c r="N10" t="n">
-        <v>34</v>
+        <v>10404186</v>
       </c>
       <c r="O10" t="n">
-        <v>6626</v>
+        <v>54377506</v>
       </c>
       <c r="P10" t="n">
-        <v>96</v>
+        <v>2662655</v>
       </c>
       <c r="Q10" t="n">
-        <v>101804</v>
+        <v>64696153</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4067530285528815</v>
+        <v>896282</v>
       </c>
       <c r="S10" t="n">
-        <v>130672</v>
+        <v>9466</v>
       </c>
       <c r="T10" t="n">
-        <v>15497</v>
+        <v>7879526</v>
       </c>
       <c r="U10" t="n">
-        <v>1327</v>
+        <v>61715642</v>
       </c>
       <c r="V10" t="n">
-        <v>34</v>
+        <v>773248</v>
       </c>
       <c r="W10" t="n">
-        <v>6626</v>
+        <v>112261757</v>
       </c>
       <c r="X10" t="n">
-        <v>96</v>
+        <v>65437004</v>
       </c>
       <c r="Y10" t="n">
-        <v>101804</v>
+        <v>911790</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2496405830859259</v>
+        <v>9985</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02976334806640383</v>
+        <v>7879526</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003024257061850257</v>
+        <v>61715642</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.491460865082623e-05</v>
+        <v>773248</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01265071167412866</v>
+        <v>112261757</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0001832883067788035</v>
+        <v>0.5707462019068696</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1943696123261386</v>
+        <v>0.1118754274971906</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.2494859335770813</v>
+        <v>0.001549890175201562</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.02958769677240747</v>
+        <v>1.636902269426138e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.002533578990577835</v>
+        <v>0.01362562221783463</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.491460865082623e-05</v>
+        <v>0.1067213970514379</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.01265071167412866</v>
+        <v>0.001337134382029603</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0001832883067788035</v>
+        <v>0.1941279577467417</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.1943696123261386</v>
+        <v>0.113156539564808</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.2514429181025842</v>
+        <v>0.001576707289499322</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.2577491814076924</v>
+        <v>1.726650027489963e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0004009431710786326</v>
+        <v>0.01362562221783463</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01598044924727693</v>
+        <v>0.1067213970514379</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001088274321499146</v>
+        <v>0.001337134382029603</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0665852051969872</v>
+        <v>0.1941279577467417</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.1227352313207654</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.001490608236050424</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.230724622395646e-06</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.257776071721124</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2.789539297366635</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>2.756338074001284</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0230218994939724</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1090031551196135</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.00142230310226389</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>2.07509267199595e-06</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.090114713993453</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>4.497843776392261</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>2.820959105550394</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.0230218994939724</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.569437375247374</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-5.950903412864454</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-8.54236702874463</v>
       </c>
     </row>
     <row r="11">
@@ -1918,136 +2462,187 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>524190</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5109330586237815</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>14633</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>539</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6970</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5117419256376503</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>130755</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>15588</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>7125</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>101153</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4077758064823823</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130682</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15501</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7125</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>101153</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2494419962227437</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02973730899101471</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.003021805070680479</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.867738797001087e-05</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01359239970239799</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0002346477422308705</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1929701062591808</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.2493027337415822</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.02957133863675385</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.002518170892233732</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.867738797001087e-05</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.01359239970239799</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0002346477422308705</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1929701062591808</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.2512390545412923</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2570632785821935</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0004006180964917301</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01595032335603503</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001087391976191839</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.06648352696541331</v>
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>-279</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2057,136 +2652,187 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>523739</v>
+        <v>737494145</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5103228898363499</v>
+        <v>8122204</v>
       </c>
       <c r="D12" t="n">
-        <v>14632</v>
+        <v>3284</v>
       </c>
       <c r="E12" t="n">
-        <v>540</v>
+        <v>104</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>140818211</v>
       </c>
       <c r="G12" t="n">
-        <v>930</v>
+        <v>4674955</v>
       </c>
       <c r="H12" t="n">
-        <v>19</v>
+        <v>2655430</v>
       </c>
       <c r="I12" t="n">
-        <v>6973</v>
+        <v>6379890</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5111534562062402</v>
+        <v>7165535</v>
       </c>
       <c r="K12" t="n">
-        <v>130747</v>
+        <v>3102</v>
       </c>
       <c r="L12" t="n">
-        <v>15589</v>
+        <v>94</v>
       </c>
       <c r="M12" t="n">
-        <v>1584</v>
+        <v>174049399</v>
       </c>
       <c r="N12" t="n">
-        <v>34</v>
+        <v>4130499</v>
       </c>
       <c r="O12" t="n">
-        <v>6626</v>
+        <v>3561288</v>
       </c>
       <c r="P12" t="n">
-        <v>96</v>
+        <v>6379888</v>
       </c>
       <c r="Q12" t="n">
-        <v>101787</v>
+        <v>65443239</v>
       </c>
       <c r="R12" t="n">
-        <v>0.406759855576919</v>
+        <v>820157</v>
       </c>
       <c r="S12" t="n">
-        <v>130675</v>
+        <v>23892</v>
       </c>
       <c r="T12" t="n">
-        <v>15490</v>
+        <v>17116218</v>
       </c>
       <c r="U12" t="n">
-        <v>1320</v>
+        <v>172818629</v>
       </c>
       <c r="V12" t="n">
-        <v>34</v>
+        <v>347114</v>
       </c>
       <c r="W12" t="n">
-        <v>6626</v>
+        <v>152808741</v>
       </c>
       <c r="X12" t="n">
-        <v>96</v>
+        <v>67752919</v>
       </c>
       <c r="Y12" t="n">
-        <v>101787</v>
+        <v>833923</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.2496415199173634</v>
+        <v>25229</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02976482560970254</v>
+        <v>17116218</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.003024407195186915</v>
+        <v>172818629</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.491783120982016e-05</v>
+        <v>347114</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01265133969400789</v>
+        <v>152808741</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.000183297405768904</v>
+        <v>0.4449067931244389</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1943468025104107</v>
+        <v>0.08873729973815589</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.2495040468630367</v>
+        <v>0.001112086116968427</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.02957580016000336</v>
+        <v>3.239618939618836e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.002520339329322429</v>
+        <v>0.02320861543924528</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.491783120982016e-05</v>
+        <v>0.2343322047661816</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01265133969400789</v>
+        <v>0.0004706667874631059</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.000183297405768904</v>
+        <v>0.2071999378381506</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.1943468025104107</v>
+        <v>0.09186909409294361</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.251438216363494</v>
+        <v>0.001130752027868641</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.2577619768625212</v>
+        <v>3.420908514466919e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0004009630751194775</v>
+        <v>0.02320861543924528</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01598124256547631</v>
+        <v>0.2343322047661816</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001088328346752867</v>
+        <v>0.0004706667874631059</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.06656941720971706</v>
+        <v>0.2071999378381506</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.09911920860063235</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.001113229176890618</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>4.230542060777987e-06</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1.718473166997143</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1.584743089723105</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.1080183490812663</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.04325383491688602</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.08744451116964461</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.001051533771837605</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>3.823759170318565e-06</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.124009528238357</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1.400180268549793</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.1448671026398454</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.04325382135745633</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.4417545199630026</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>-2.554725109037984</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>-2.800810589486104</v>
       </c>
     </row>
     <row r="13">
@@ -2196,136 +2842,187 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>523908</v>
+        <v>1993818234</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5130862670545211</v>
+        <v>14393469</v>
       </c>
       <c r="D13" t="n">
-        <v>14642</v>
+        <v>38758</v>
       </c>
       <c r="E13" t="n">
-        <v>540</v>
+        <v>152795</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>313683078</v>
       </c>
       <c r="G13" t="n">
-        <v>930</v>
+        <v>12059873</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>2582535</v>
       </c>
       <c r="I13" t="n">
-        <v>6980</v>
+        <v>15954376</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5133553982760333</v>
+        <v>10862797</v>
       </c>
       <c r="K13" t="n">
-        <v>130816</v>
+        <v>37132</v>
       </c>
       <c r="L13" t="n">
-        <v>15846</v>
+        <v>140489</v>
       </c>
       <c r="M13" t="n">
-        <v>1584</v>
+        <v>301274820</v>
       </c>
       <c r="N13" t="n">
-        <v>37</v>
+        <v>10876302</v>
       </c>
       <c r="O13" t="n">
-        <v>6554</v>
+        <v>3286354</v>
       </c>
       <c r="P13" t="n">
-        <v>83</v>
+        <v>15954376</v>
       </c>
       <c r="Q13" t="n">
-        <v>100178</v>
+        <v>99734648</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4067126289348513</v>
+        <v>9892913</v>
       </c>
       <c r="S13" t="n">
-        <v>130702</v>
+        <v>5108402</v>
       </c>
       <c r="T13" t="n">
-        <v>15819</v>
+        <v>18952695</v>
       </c>
       <c r="U13" t="n">
-        <v>1584</v>
+        <v>755253156</v>
       </c>
       <c r="V13" t="n">
-        <v>37</v>
+        <v>50241</v>
       </c>
       <c r="W13" t="n">
-        <v>6554</v>
+        <v>759680996</v>
       </c>
       <c r="X13" t="n">
-        <v>83</v>
+        <v>123285443</v>
       </c>
       <c r="Y13" t="n">
-        <v>100178</v>
+        <v>9957512</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2496926941371386</v>
+        <v>5198543</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03024576834100644</v>
+        <v>18952695</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.003023431594860166</v>
+        <v>755253156</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>50241</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01250982997014743</v>
+        <v>759680996</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.1731076469832306</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.05002193595145946</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.2494750986814479</v>
+        <v>0.004961792821080199</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.03019423257518496</v>
+        <v>0.00256212021381283</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.003023431594860166</v>
+        <v>0.009505728594916642</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>0.3787973964330792</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.01250982997014743</v>
+        <v>2.519838526062953e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.3810181806171605</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.06183384267314309</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.2515288943860372</v>
+        <v>0.004994192464587522</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.2576788291074005</v>
+        <v>0.002607330453373715</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0004008337341670675</v>
+        <v>0.009505728594916642</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01597608740465883</v>
+        <v>0.3787973964330792</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001087977278453469</v>
+        <v>2.519838526062953e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.06661474915443169</v>
+        <v>0.3810181806171605</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.06497142958719676</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.004859770983516845</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.002299031035945476</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.41595038798306</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1.512158028543739</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.03885813093632286</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.04000960500795581</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.0490341453061463</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.004655890813766126</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.002113868720893642</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.359940105753893</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.363752950811864</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.049448148441399</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.04000960500795581</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.1612181303784787</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>-2.079106384077738</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>-1.868954714855918</v>
       </c>
     </row>
     <row r="14">
@@ -2335,136 +3032,187 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>523908</v>
+        <v>2333568088</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5130862670545211</v>
+        <v>8856812</v>
       </c>
       <c r="D14" t="n">
-        <v>14642</v>
+        <v>290255</v>
       </c>
       <c r="E14" t="n">
-        <v>540</v>
+        <v>93738</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>110462598</v>
       </c>
       <c r="G14" t="n">
-        <v>930</v>
+        <v>11856556</v>
       </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>2069697</v>
       </c>
       <c r="I14" t="n">
-        <v>6980</v>
+        <v>11305811</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5133553982760333</v>
+        <v>8115820</v>
       </c>
       <c r="K14" t="n">
-        <v>130816</v>
+        <v>279415</v>
       </c>
       <c r="L14" t="n">
-        <v>15846</v>
+        <v>87778</v>
       </c>
       <c r="M14" t="n">
-        <v>1584</v>
+        <v>129535463</v>
       </c>
       <c r="N14" t="n">
-        <v>37</v>
+        <v>16089153</v>
       </c>
       <c r="O14" t="n">
-        <v>6554</v>
+        <v>2784673</v>
       </c>
       <c r="P14" t="n">
-        <v>83</v>
+        <v>11305811</v>
       </c>
       <c r="Q14" t="n">
-        <v>100178</v>
+        <v>76145340</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4067126289348513</v>
+        <v>74536628</v>
       </c>
       <c r="S14" t="n">
-        <v>130702</v>
+        <v>5632518</v>
       </c>
       <c r="T14" t="n">
-        <v>15819</v>
+        <v>113140299</v>
       </c>
       <c r="U14" t="n">
-        <v>1584</v>
+        <v>1224395758</v>
       </c>
       <c r="V14" t="n">
-        <v>37</v>
+        <v>94977</v>
       </c>
       <c r="W14" t="n">
-        <v>6554</v>
+        <v>301014022</v>
       </c>
       <c r="X14" t="n">
-        <v>83</v>
+        <v>78297547</v>
       </c>
       <c r="Y14" t="n">
-        <v>100178</v>
+        <v>74263249</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2496926941371386</v>
+        <v>5624912</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03024576834100644</v>
+        <v>113140299</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.003023431594860166</v>
+        <v>1224395758</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>94977</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01250982997014743</v>
+        <v>301014022</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.2308090125030884</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.03263043422283893</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.2494750986814479</v>
+        <v>0.03194105558063322</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.03019423257518496</v>
+        <v>0.002413693446085555</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.003023431594860166</v>
+        <v>0.04848382165568935</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.062308649610237e-05</v>
+        <v>0.5246882507076862</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.01250982997014743</v>
+        <v>4.070033374573641e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0001584247615993648</v>
+        <v>0.1289930315502326</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.1912129610542309</v>
+        <v>0.03355271586144522</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.2515288943860372</v>
+        <v>0.03182390493848749</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.2576788291074005</v>
+        <v>0.002410434059723909</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.0004008337341670675</v>
+        <v>0.04848382165568935</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.01597608740465883</v>
+        <v>0.5246882507076862</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.001087977278453469</v>
+        <v>4.070033374573641e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.06661474915443169</v>
+        <v>0.1289930315502326</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.03415855248017087</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.03109562149617466</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.001205081614914508</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.4260271586298792</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.270217490221352</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.02660771302079959</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.02422430067101603</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.03130072800344191</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.02993430976332412</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.001128460752245254</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.4995865228852924</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>1.723664405030208</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.03579933683083517</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.02422430067101603</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.2300071408929895</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>-0.813535918134307</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>-1.345638063936363</v>
       </c>
     </row>
     <row r="15">
@@ -2474,136 +3222,187 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>524162</v>
+        <v>1053375980</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5123358808917853</v>
+        <v>39691938</v>
       </c>
       <c r="D15" t="n">
-        <v>14634</v>
+        <v>60656</v>
       </c>
       <c r="E15" t="n">
-        <v>540</v>
+        <v>324061</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>157059131</v>
       </c>
       <c r="G15" t="n">
-        <v>930</v>
+        <v>3055716</v>
       </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>4445698</v>
       </c>
       <c r="I15" t="n">
-        <v>6974</v>
+        <v>16973375</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5126640237178581</v>
+        <v>37194203</v>
       </c>
       <c r="K15" t="n">
-        <v>130728</v>
+        <v>57747</v>
       </c>
       <c r="L15" t="n">
-        <v>15843</v>
+        <v>300358</v>
       </c>
       <c r="M15" t="n">
-        <v>1584</v>
+        <v>215980634</v>
       </c>
       <c r="N15" t="n">
-        <v>34</v>
+        <v>2710796</v>
       </c>
       <c r="O15" t="n">
-        <v>7026</v>
+        <v>6479489</v>
       </c>
       <c r="P15" t="n">
-        <v>96</v>
+        <v>16973375</v>
       </c>
       <c r="Q15" t="n">
-        <v>100304</v>
+        <v>348915039</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4071947222423602</v>
+        <v>15519874</v>
       </c>
       <c r="S15" t="n">
-        <v>130598</v>
+        <v>10189428</v>
       </c>
       <c r="T15" t="n">
-        <v>15801</v>
+        <v>21967206</v>
       </c>
       <c r="U15" t="n">
-        <v>1584</v>
+        <v>127957168</v>
       </c>
       <c r="V15" t="n">
-        <v>34</v>
+        <v>252627</v>
       </c>
       <c r="W15" t="n">
-        <v>7026</v>
+        <v>309337678</v>
       </c>
       <c r="X15" t="n">
-        <v>96</v>
+        <v>354560636</v>
       </c>
       <c r="Y15" t="n">
-        <v>100304</v>
+        <v>15532238</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2494038102723967</v>
+        <v>10323151</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.03022538833414097</v>
+        <v>21967206</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.003021966491275598</v>
+        <v>127957168</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.486544236323885e-05</v>
+        <v>252627</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01340425288365047</v>
+        <v>309337678</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0001831494843197332</v>
+        <v>0.2081279278838313</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1913606862000679</v>
+        <v>0.3312350439204053</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.2491557953457137</v>
+        <v>0.01473346107626263</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.03014526043475109</v>
+        <v>0.009673115956184988</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.003021966491275598</v>
+        <v>0.02085409807806705</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.486544236323885e-05</v>
+        <v>0.1214734059153314</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.01340425288365047</v>
+        <v>0.0002398260495744359</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.0001831494843197332</v>
+        <v>0.293663121120343</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1913606862000679</v>
+        <v>0.3365945709147459</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.251269645643904</v>
+        <v>0.01474519857572602</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.2575539623246248</v>
+        <v>0.009800063031625231</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.0004006394969494164</v>
+        <v>0.02085409807806705</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.01596834566412674</v>
+        <v>0.1214734059153314</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.001087450063148416</v>
+        <v>0.0002398260495744359</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.06652523456488643</v>
+        <v>0.293663121120343</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.3391262462620421</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.01439561969127111</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.00922921177678648</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1.341906599199272</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.7252196884155266</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.1266128547947334</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.08056655611228196</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.3177857036383153</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.01370522042851214</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.00855415366505699</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.845329438782153</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.6433590786833777</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.184534936898789</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.08056655611228196</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.2026297163145869</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>-1.637056776251913</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>-2.093835088208486</v>
       </c>
     </row>
     <row r="16">
@@ -2613,136 +3412,377 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394374</v>
+        <v>652071205</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6090690562765294</v>
+        <v>1077915</v>
       </c>
       <c r="D16" t="n">
-        <v>6908</v>
+        <v>1340</v>
       </c>
       <c r="E16" t="n">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>71222982</v>
       </c>
       <c r="G16" t="n">
-        <v>248</v>
+        <v>18880</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>34595147</v>
       </c>
       <c r="I16" t="n">
-        <v>3763</v>
+        <v>38250946</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6089448087348557</v>
+        <v>1036523</v>
       </c>
       <c r="K16" t="n">
-        <v>61023</v>
+        <v>1285</v>
       </c>
       <c r="L16" t="n">
-        <v>24833</v>
+        <v>28</v>
       </c>
       <c r="M16" t="n">
-        <v>3433</v>
+        <v>124372406</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>116832</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>51921515</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>38250946</v>
       </c>
       <c r="Q16" t="n">
-        <v>64884</v>
+        <v>9342709</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6312155466638267</v>
+        <v>338215</v>
       </c>
       <c r="S16" t="n">
-        <v>61173</v>
+        <v>6894</v>
       </c>
       <c r="T16" t="n">
-        <v>24730</v>
+        <v>8019074</v>
       </c>
       <c r="U16" t="n">
-        <v>3435</v>
+        <v>979927</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2083180</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>365051612</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>9405900</v>
       </c>
       <c r="Y16" t="n">
-        <v>64884</v>
+        <v>344501</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1547338313377657</v>
+        <v>7399</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.06296814698737746</v>
+        <v>8019074</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.008704934909502148</v>
+        <v>979927</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2083180</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>365051612</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.4083136810189311</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1645240304888253</v>
+        <v>0.01432774354757775</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.155114180955134</v>
+        <v>0.0005186780176867341</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.06270697358345124</v>
+        <v>1.057246501170068e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.008710006237733724</v>
+        <v>0.01229785020180427</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>0.00150279140143905</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>0.003194712454754079</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.5598339708927954</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.1645240304888253</v>
+        <v>0.01442465167588561</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.1576473094068067</v>
+        <v>0.0005283180691900051</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.1559433431209968</v>
+        <v>1.134692031064307e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0009889090051575407</v>
+        <v>0.01229785020180427</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.00565960230644008</v>
+        <v>0.00150279140143905</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0008367691582102268</v>
+        <v>0.003194712454754079</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.04770852033856187</v>
+        <v>0.5598339708927954</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.01487757000403046</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.0005137475745459425</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.334210118970059e-06</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.9830319650443696</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.00723847328912492</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1.591627420505403</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.293303443755042</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.01430627043253658</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.0004926609203668179</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.288202873488333e-06</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.716609544198474</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.04479265420100861</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.388765886388128</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.293303443755042</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.4082063583838209</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>-1.890593954382635</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>-3.45827174809843</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mcf-inp</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>585427399</v>
+      </c>
+      <c r="C17" t="n">
+        <v>71</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1379</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>240231370</v>
+      </c>
+      <c r="G17" t="n">
+        <v>213921</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11548249</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31509749</v>
+      </c>
+      <c r="J17" t="n">
+        <v>71</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1375</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>255353659</v>
+      </c>
+      <c r="N17" t="n">
+        <v>209879</v>
+      </c>
+      <c r="O17" t="n">
+        <v>13566772</v>
+      </c>
+      <c r="P17" t="n">
+        <v>31509749</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>626</v>
+      </c>
+      <c r="R17" t="n">
+        <v>364167</v>
+      </c>
+      <c r="S17" t="n">
+        <v>792</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4649180</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1622797</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1171291</v>
+      </c>
+      <c r="W17" t="n">
+        <v>324177348</v>
+      </c>
+      <c r="X17" t="n">
+        <v>622</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>364315</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>796</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4649180</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1622797</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1171291</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>324177348</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4329165297574329</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.069304240063421e-06</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.000622053222350121</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.352857760591421e-06</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.007941514196194975</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.002771986761760701</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.002000745100076876</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.5537447488001839</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.062471625110939e-06</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.0006223060291033628</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.359690375543903e-06</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.007941514196194975</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.002771986761760701</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.002000745100076876</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.5537447488001839</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.091510238658987e-06</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.0005888860012170356</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>2.049784485744576e-07</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.693169014113738</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.09135248895311783</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.5917855409428829</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.2691174777079404</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.091510238658987e-06</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.0005871778474789151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.537338364308432e-07</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>3.925649764472332</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.08962639960074707</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.6952239691808479</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0.2691174777079404</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.4329162769506796</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>-3.646014704207583</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>-3.980206034053421</v>
       </c>
     </row>
   </sheetData>
